--- a/Documentación y planificacion/presupúesto con planificacion.xlsx
+++ b/Documentación y planificacion/presupúesto con planificacion.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CECAINFO\Documents\Melkis\MelkisDiaz\Documentación y planificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{251F8A7B-0F83-49F1-ABCA-B935152944D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{09A33170-4FC4-4B17-A191-37FFD9537F78}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -505,7 +504,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6483C77-CD4A-451E-9C97-6023C1B84444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B15:B194"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -1674,18 +1673,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B977B8-365D-4476-83D3-F02B03E77866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="73.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">

--- a/Documentación y planificacion/presupúesto con planificacion.xlsx
+++ b/Documentación y planificacion/presupúesto con planificacion.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CECAINFO\Documents\Melkis\MelkisDiaz\Documentación y planificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{251F8A7B-0F83-49F1-ABCA-B935152944D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFAD0C5-93C8-4235-A275-F3E3425A3ABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{09A33170-4FC4-4B17-A191-37FFD9537F78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Hoja2!$A$1:$C$194</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="174">
   <si>
     <t>1. Gerencia General</t>
   </si>
@@ -500,13 +501,67 @@
   </si>
   <si>
     <t>Total horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis y Diseño del Sistema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levantamiento de requerimientos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo Gerencia </t>
+  </si>
+  <si>
+    <t>Modulo Gerencia  de tienda</t>
+  </si>
+  <si>
+    <t>Modulo de Ventas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Caja </t>
+  </si>
+  <si>
+    <t>Modulo de Contabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Taller </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de inventario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de nomina </t>
+  </si>
+  <si>
+    <t>Modulo de clientes</t>
+  </si>
+  <si>
+    <t>pph</t>
+  </si>
+  <si>
+    <t>Modulo de Ordenes</t>
+  </si>
+  <si>
+    <t>Modulo de Oferta</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>5.19. En la parte de la nómina hay que especificar sueldos brutos, deducciones y  sueldos netos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="_-[$USD]\ * #,##0.00_-;\-[$USD]\ * #,##0.00_-;_-[$USD]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,8 +576,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +607,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE78D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6B6B6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,16 +689,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB6B6B6"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF990000"/>
+      <color rgb="FFCC0000"/>
+      <color rgb="FFAE78D6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -868,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6483C77-CD4A-451E-9C97-6023C1B84444}">
   <dimension ref="B15:B194"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B194"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1675,25 +1839,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B977B8-365D-4476-83D3-F02B03E77866}">
-  <dimension ref="A3:G199"/>
+  <dimension ref="A3:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>147</v>
       </c>
@@ -1704,7 +1868,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>148</v>
       </c>
@@ -1713,22 +1877,33 @@
       </c>
       <c r="E6" s="1">
         <f>B26+B43+B56+B71+B97+B114+B132+B149+B163+B184+B194</f>
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1">
         <f>E6/30</f>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5.0333333333333332</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <f>225000/E6</f>
+        <v>1490.0662251655629</v>
+      </c>
+      <c r="J7" s="1">
+        <f>I7/50</f>
+        <v>29.801324503311257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>150</v>
       </c>
@@ -1736,7 +1911,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>151</v>
       </c>
@@ -1744,12 +1919,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>154</v>
       </c>
@@ -1757,62 +1932,62 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>153</v>
       </c>
@@ -1823,78 +1998,86 @@
         <f>B26*$B$14</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+      <c r="E26" s="3">
+        <f>B26*$I$7</f>
+        <v>8940.3973509933767</v>
+      </c>
+      <c r="F26" s="3">
+        <f>E26/50</f>
+        <v>178.80794701986753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>153</v>
       </c>
@@ -1905,53 +2088,61 @@
         <f>B43*$B$14</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" s="3">
+        <f>B43*$I$7</f>
+        <v>14900.662251655629</v>
+      </c>
+      <c r="F43" s="3">
+        <f>E43/50</f>
+        <v>298.01324503311258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
@@ -1962,63 +2153,71 @@
         <f>B56*$B$14</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="E56" s="3">
+        <f>B56*$I$7</f>
+        <v>4470.1986754966883</v>
+      </c>
+      <c r="F56" s="3">
+        <f>E56/50</f>
+        <v>89.403973509933763</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>153</v>
       </c>
@@ -2029,123 +2228,130 @@
         <f>B71*$B$14</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" s="3">
+        <f>B71*$I$7</f>
+        <v>7450.3311258278145</v>
+      </c>
+      <c r="F71" s="3">
+        <f>E71/50</f>
+        <v>149.00662251655629</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="1">
+        <f>80/20</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>153</v>
       </c>
@@ -2156,165 +2362,211 @@
         <f>B97*$B$14</f>
         <v>2400</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
+      <c r="E97" s="3">
+        <f>B97*$I$7</f>
+        <v>119205.29801324503</v>
+      </c>
+      <c r="F97" s="3">
+        <f>E97/50</f>
+        <v>2384.1059602649007</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B100" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="1" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B102" s="1" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B103" s="1" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B104" s="1" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B105" s="1" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B106" s="1" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B106" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B107" s="1" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B107" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B108" s="1" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B114" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C114" s="1">
         <f>B114*$B$14</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+      <c r="E114" s="3">
+        <f>B114*$I$7</f>
+        <v>17880.794701986753</v>
+      </c>
+      <c r="F114" s="3">
+        <f>E114/50</f>
+        <v>357.61589403973505</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B118" s="1" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>1</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B119" s="1" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>2</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B120" s="1" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>3</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B121" s="1" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>4</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>5</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>6</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B124" s="1" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>7</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>8</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>9</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>10</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>153</v>
       </c>
@@ -2325,78 +2577,86 @@
         <f>B132*$B$14</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E132" s="3">
+        <f>B132*$I$7</f>
+        <v>11920.529801324503</v>
+      </c>
+      <c r="F132" s="3">
+        <f>E132/50</f>
+        <v>238.41059602649005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B136" s="1" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B136" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B137" s="1" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B137" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B138" s="1" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B138" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B139" s="1" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B139" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B140" s="1" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B140" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B141" s="1" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B141" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B142" s="1" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B142" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B143" s="1" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B143" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B144" s="1" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B144" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
@@ -2407,63 +2667,71 @@
         <f>B149*$B$14</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E149" s="3">
+        <f>B149*$I$7</f>
+        <v>8940.3973509933767</v>
+      </c>
+      <c r="F149" s="3">
+        <f>E149/50</f>
+        <v>178.80794701986753</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B153" s="1" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B153" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B154" s="1" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B154" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B155" s="1" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B155" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B156" s="1" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B156" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B157" s="1" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B157" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B158" s="1" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B158" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>153</v>
       </c>
@@ -2474,98 +2742,106 @@
         <f>B163*$B$14</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E163" s="3">
+        <f>B163*$I$7</f>
+        <v>7450.3311258278145</v>
+      </c>
+      <c r="F163" s="3">
+        <f>E163/50</f>
+        <v>149.00662251655629</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B167" s="1" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B167" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B168" s="1" t="s">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B169" s="1" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B170" s="1" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B170" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B171" s="1" t="s">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B171" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B172" s="1" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B172" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B173" s="1" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B174" s="1" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B174" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B175" s="1" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B175" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B176" s="1" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B176" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B177" s="1" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B177" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B178" s="1" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B178" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B179" s="1" t="s">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B179" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>153</v>
       </c>
@@ -2576,43 +2852,51 @@
         <f>B184*$B$14</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E184" s="3">
+        <f>B184*$I$7</f>
+        <v>17880.794701986753</v>
+      </c>
+      <c r="F184" s="3">
+        <f>E184/50</f>
+        <v>357.61589403973505</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B188" s="1" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B188" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B189" s="1" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B189" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B193" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>153</v>
       </c>
@@ -2623,21 +2907,212 @@
         <f>B194*$B$14</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E194" s="3">
+        <f>B194*$I$7</f>
+        <v>5960.2649006622514</v>
+      </c>
+      <c r="F194" s="3">
+        <f>E194/50</f>
+        <v>119.20529801324503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C197" s="1">
         <f>SUM(C5:C194)</f>
-        <v>5410</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C199" s="1">
         <f>C197*50</f>
-        <v>270500</v>
-      </c>
+        <v>276700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AC15CF-8A9A-4D66-BA2B-C69B92AB3A68}">
+  <dimension ref="B4:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="4">
+        <v>183.67346938775509</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="4">
+        <v>306.12244897959187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="4">
+        <v>91.836734693877546</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="4">
+        <v>153.06122448979593</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2448.9795918367349</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="4">
+        <v>244.89795918367349</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="4">
+        <v>244.89795918367349</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="4">
+        <v>183.67346938775509</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="4">
+        <v>153.06122448979593</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="4">
+        <v>367.34693877551018</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="4">
+        <v>122.44897959183675</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="4">
+        <f>SUM(D4:D18)</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentación y planificacion/presupúesto con planificacion.xlsx
+++ b/Documentación y planificacion/presupúesto con planificacion.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CECAINFO\Documents\Melkis\MelkisDiaz\Documentación y planificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFAD0C5-93C8-4235-A275-F3E3425A3ABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{09A33170-4FC4-4B17-A191-37FFD9537F78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Hoja2!$A$1:$C$194</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="174">
   <si>
     <t>1. Gerencia General</t>
   </si>
@@ -499,13 +501,67 @@
   </si>
   <si>
     <t>Total horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis y Diseño del Sistema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levantamiento de requerimientos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo Gerencia </t>
+  </si>
+  <si>
+    <t>Modulo Gerencia  de tienda</t>
+  </si>
+  <si>
+    <t>Modulo de Ventas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Caja </t>
+  </si>
+  <si>
+    <t>Modulo de Contabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Taller </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de inventario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de nomina </t>
+  </si>
+  <si>
+    <t>Modulo de clientes</t>
+  </si>
+  <si>
+    <t>pph</t>
+  </si>
+  <si>
+    <t>Modulo de Ordenes</t>
+  </si>
+  <si>
+    <t>Modulo de Oferta</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>5.19. En la parte de la nómina hay que especificar sueldos brutos, deducciones y  sueldos netos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="_-[$USD]\ * #,##0.00_-;\-[$USD]\ * #,##0.00_-;_-[$USD]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,8 +576,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +607,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE78D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6B6B6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,16 +689,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB6B6B6"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF990000"/>
+      <color rgb="FFCC0000"/>
+      <color rgb="FFAE78D6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -864,11 +1029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6483C77-CD4A-451E-9C97-6023C1B84444}">
   <dimension ref="B15:B194"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B194"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1673,27 +1838,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G199"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B977B8-365D-4476-83D3-F02B03E77866}">
+  <dimension ref="A3:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="78.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>147</v>
       </c>
@@ -1704,7 +1868,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>148</v>
       </c>
@@ -1713,22 +1877,33 @@
       </c>
       <c r="E6" s="1">
         <f>B26+B43+B56+B71+B97+B114+B132+B149+B163+B184+B194</f>
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1">
         <f>E6/30</f>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5.0333333333333332</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <f>225000/E6</f>
+        <v>1490.0662251655629</v>
+      </c>
+      <c r="J7" s="1">
+        <f>I7/50</f>
+        <v>29.801324503311257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>150</v>
       </c>
@@ -1736,7 +1911,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>151</v>
       </c>
@@ -1744,12 +1919,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>154</v>
       </c>
@@ -1757,62 +1932,62 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>153</v>
       </c>
@@ -1823,78 +1998,86 @@
         <f>B26*$B$14</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+      <c r="E26" s="3">
+        <f>B26*$I$7</f>
+        <v>8940.3973509933767</v>
+      </c>
+      <c r="F26" s="3">
+        <f>E26/50</f>
+        <v>178.80794701986753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>153</v>
       </c>
@@ -1905,53 +2088,61 @@
         <f>B43*$B$14</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" s="3">
+        <f>B43*$I$7</f>
+        <v>14900.662251655629</v>
+      </c>
+      <c r="F43" s="3">
+        <f>E43/50</f>
+        <v>298.01324503311258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
@@ -1962,63 +2153,71 @@
         <f>B56*$B$14</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="E56" s="3">
+        <f>B56*$I$7</f>
+        <v>4470.1986754966883</v>
+      </c>
+      <c r="F56" s="3">
+        <f>E56/50</f>
+        <v>89.403973509933763</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>153</v>
       </c>
@@ -2029,123 +2228,130 @@
         <f>B71*$B$14</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" s="3">
+        <f>B71*$I$7</f>
+        <v>7450.3311258278145</v>
+      </c>
+      <c r="F71" s="3">
+        <f>E71/50</f>
+        <v>149.00662251655629</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="1">
+        <f>80/20</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>153</v>
       </c>
@@ -2156,165 +2362,211 @@
         <f>B97*$B$14</f>
         <v>2400</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
+      <c r="E97" s="3">
+        <f>B97*$I$7</f>
+        <v>119205.29801324503</v>
+      </c>
+      <c r="F97" s="3">
+        <f>E97/50</f>
+        <v>2384.1059602649007</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B100" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="1" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B102" s="1" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B103" s="1" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B104" s="1" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B105" s="1" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B106" s="1" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B106" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B107" s="1" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B107" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B108" s="1" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B114" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C114" s="1">
         <f>B114*$B$14</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+      <c r="E114" s="3">
+        <f>B114*$I$7</f>
+        <v>17880.794701986753</v>
+      </c>
+      <c r="F114" s="3">
+        <f>E114/50</f>
+        <v>357.61589403973505</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B118" s="1" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>1</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B119" s="1" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>2</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B120" s="1" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>3</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B121" s="1" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>4</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>5</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>6</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B124" s="1" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>7</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>8</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>9</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>10</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>153</v>
       </c>
@@ -2325,78 +2577,86 @@
         <f>B132*$B$14</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E132" s="3">
+        <f>B132*$I$7</f>
+        <v>11920.529801324503</v>
+      </c>
+      <c r="F132" s="3">
+        <f>E132/50</f>
+        <v>238.41059602649005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B136" s="1" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B136" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B137" s="1" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B137" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B138" s="1" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B138" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B139" s="1" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B139" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B140" s="1" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B140" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B141" s="1" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B141" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B142" s="1" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B142" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B143" s="1" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B143" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B144" s="1" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B144" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
@@ -2407,63 +2667,71 @@
         <f>B149*$B$14</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E149" s="3">
+        <f>B149*$I$7</f>
+        <v>8940.3973509933767</v>
+      </c>
+      <c r="F149" s="3">
+        <f>E149/50</f>
+        <v>178.80794701986753</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B153" s="1" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B153" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B154" s="1" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B154" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B155" s="1" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B155" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B156" s="1" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B156" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B157" s="1" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B157" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B158" s="1" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B158" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>153</v>
       </c>
@@ -2474,98 +2742,106 @@
         <f>B163*$B$14</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E163" s="3">
+        <f>B163*$I$7</f>
+        <v>7450.3311258278145</v>
+      </c>
+      <c r="F163" s="3">
+        <f>E163/50</f>
+        <v>149.00662251655629</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B167" s="1" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B167" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B168" s="1" t="s">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B169" s="1" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B170" s="1" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B170" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B171" s="1" t="s">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B171" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B172" s="1" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B172" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B173" s="1" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B174" s="1" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B174" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B175" s="1" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B175" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B176" s="1" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B176" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B177" s="1" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B177" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B178" s="1" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B178" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B179" s="1" t="s">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B179" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>153</v>
       </c>
@@ -2576,43 +2852,51 @@
         <f>B184*$B$14</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E184" s="3">
+        <f>B184*$I$7</f>
+        <v>17880.794701986753</v>
+      </c>
+      <c r="F184" s="3">
+        <f>E184/50</f>
+        <v>357.61589403973505</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B188" s="1" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B188" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B189" s="1" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B189" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B193" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>153</v>
       </c>
@@ -2623,21 +2907,212 @@
         <f>B194*$B$14</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E194" s="3">
+        <f>B194*$I$7</f>
+        <v>5960.2649006622514</v>
+      </c>
+      <c r="F194" s="3">
+        <f>E194/50</f>
+        <v>119.20529801324503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C197" s="1">
         <f>SUM(C5:C194)</f>
-        <v>5410</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C199" s="1">
         <f>C197*50</f>
-        <v>270500</v>
-      </c>
+        <v>276700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AC15CF-8A9A-4D66-BA2B-C69B92AB3A68}">
+  <dimension ref="B4:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="4">
+        <v>183.67346938775509</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="4">
+        <v>306.12244897959187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="4">
+        <v>91.836734693877546</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="4">
+        <v>153.06122448979593</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2448.9795918367349</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="4">
+        <v>244.89795918367349</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="4">
+        <v>244.89795918367349</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="4">
+        <v>183.67346938775509</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="4">
+        <v>153.06122448979593</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="4">
+        <v>367.34693877551018</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="4">
+        <v>122.44897959183675</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="4">
+        <f>SUM(D4:D18)</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
